--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
   <si>
     <t>Vehicle No.</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Abundance power</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -644,6 +647,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -3105,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,12 +3122,13 @@
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3143,16 +3148,19 @@
         <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -3171,17 +3179,20 @@
       <c r="F2" s="2">
         <v>500</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -3200,17 +3211,20 @@
       <c r="F3" s="2">
         <v>50</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
@@ -3229,17 +3243,20 @@
       <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3258,13 +3275,16 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3277,7 +3297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -3290,10 +3310,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -3503,15 +3523,15 @@
       <c r="C27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
@@ -3520,13 +3540,13 @@
       <c r="C28" s="13">
         <v>25</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
@@ -3552,21 +3572,21 @@
       <c r="C30" s="13">
         <v>25</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
@@ -3575,13 +3595,13 @@
       <c r="C31" s="13">
         <v>56</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -3590,13 +3610,13 @@
       <c r="C32" s="13">
         <v>100</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
@@ -3605,13 +3625,13 @@
       <c r="C33" s="13">
         <v>89</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
@@ -3782,10 +3802,10 @@
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="18">
         <f>SUM(C4:C54)</f>
         <v>2980</v>
       </c>
